--- a/data/trans_orig/P16B14_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB4E6677-122C-4AF8-82EB-0C845980936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53C30C3-2D2B-4D52-ACDC-FD33E39474F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B364EBBE-F90F-460F-81E8-1B34E0A7668C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6030437C-1335-4FC8-9E16-5A86D2A5B794}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>88,4%</t>
   </si>
   <si>
-    <t>34,31%</t>
+    <t>44,7%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -149,7 +149,7 @@
     <t>11,6%</t>
   </si>
   <si>
-    <t>65,69%</t>
+    <t>55,3%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -158,13 +158,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,02%</t>
+    <t>95,18%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>95,92%</t>
+    <t>95,95%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -173,13 +173,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,98%</t>
+    <t>4,82%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>4,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAB193D-717E-45F9-B2D7-3DF597347F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FE0830-E583-4C8C-8B5E-547A31EE65B2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53C30C3-2D2B-4D52-ACDC-FD33E39474F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A83C152-8000-45A0-AD47-BF11AF4AEAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6030437C-1335-4FC8-9E16-5A86D2A5B794}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D095F2CE-B807-4447-90AB-3068CAB1797A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -137,7 +137,7 @@
     <t>88,4%</t>
   </si>
   <si>
-    <t>44,7%</t>
+    <t>35,26%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -149,7 +149,7 @@
     <t>11,6%</t>
   </si>
   <si>
-    <t>55,3%</t>
+    <t>64,74%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -158,13 +158,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>95,95%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -173,13 +173,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>5,45%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>4,05%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FE0830-E583-4C8C-8B5E-547A31EE65B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DCBB00-0D5D-4012-AD10-10CE3C1C6401}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A83C152-8000-45A0-AD47-BF11AF4AEAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30205C07-5A77-46BE-9DD4-DD5988CAF669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D095F2CE-B807-4447-90AB-3068CAB1797A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7CF4CE0-935A-4291-B76C-892641F5B4F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -137,7 +137,7 @@
     <t>88,4%</t>
   </si>
   <si>
-    <t>35,26%</t>
+    <t>34,31%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -149,7 +149,7 @@
     <t>11,6%</t>
   </si>
   <si>
-    <t>64,74%</t>
+    <t>65,69%</t>
   </si>
   <si>
     <t>93,85%</t>
@@ -158,13 +158,13 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>94,55%</t>
+    <t>94,02%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>96,15%</t>
+    <t>95,92%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -173,13 +173,13 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>5,45%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>4,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DCBB00-0D5D-4012-AD10-10CE3C1C6401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6673F5E-D265-428C-91B2-8940303FAEB5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P16B14_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B14_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30205C07-5A77-46BE-9DD4-DD5988CAF669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F994997E-BDDD-4710-8A12-467ABA43CFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7CF4CE0-935A-4291-B76C-892641F5B4F5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DD62F315-25B4-4F19-A01A-E9F56AD50DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6673F5E-D265-428C-91B2-8940303FAEB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E2A231-F3F4-47F7-ADC1-1FD6612265CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
